--- a/doc/요구사항_합본2_team2_최종_lee.xlsx
+++ b/doc/요구사항_합본2_team2_최종_lee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
   <si>
     <t>Q&amp;A6</t>
   </si>
@@ -144,14 +144,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2. 게시글은 공개되도록 작성할 수 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 게시글은 비공개되도록 작성할 수 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Q&amp;A 게시판 글 상세보기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -176,26 +168,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3. 작성된 Contents 하단에는 댓글 창이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 댓글의 작성은 비동기로 이루어진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 댓글의 작성자와 관리자는 댓글을 수정, 삭제 할 수 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 댓글은 20개 단위로 보여진다</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 댓글창의 하단에는 페이지 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Q&amp;A 게시판 글 작성, 수정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -208,10 +180,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>9-1. 열람할 수 없는 로그인 사용자가 상세보기를 클릭한 경우 조회할 수 없다는 경고창을 띄운다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 게시글은 제목과 내용을 입력, 공개여부를 선택하여 작성한다.(SummerNote 사용)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -224,18 +192,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>7. 타이틀에 마우스가 오버 되면</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 게시판의 Content 상단에는 추천순이 높은 5개의 게시글이 대표 사진으로 보여진다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2. 마우스가 오버되면 글의 제목과 추천수가 보인다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 게시판의 글은 글 번호, 글 제목, 작성자, 작성일, 조회수, 추천순이 표시된다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -244,10 +204,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>5.게시글 테이블 하단에는 페이지 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 게시글 테이블 상단과 하단에는 검색어 입력창과 검색 버튼이 있다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -256,22 +212,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>8. 타이틀에 마우스가 오버 되면</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 글 작성 버튼을 클릭하면 글 작성 페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 게시글의 제목을 클릭하면 상세보기로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-1. 비로그인 사용자가 상세보기를 클릭한 경우 로그인창으로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>나만의 코스 게시판 글 상세보기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -321,6 +261,110 @@
   </si>
   <si>
     <t>나만의 코스 게시판 글 작성, 수정</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 글 작성 버튼을 클릭하면 글 작성 페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1. 비로그인 작성자가 글작성 버튼을 클릭하면 로그인 페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 상기의 Contents는 마우스가 오버되면 글의 제목과 추천수가 보인다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 게시글 테이블 하단에는 페이지 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-1. 비로그인 사용자가 상세보기를 클릭한 경우 로그인창으로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임라인 형식으로 작성되도록 한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. select 창에서 코스에 포함된 여행지의 수를 선택한다. 여행지의 수는 최소 2개에서 최대 6개까지 이다. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 작성자는 select 태그를 통해 자가용과 대중교통중 이동 수단을 선택한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 작성자는 총 여행경비를 입력해야한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 작성창 하단에는 작성완료 버튼과 취소버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 작성완료버튼을 클릭하였을때 제목과 내용이 작성되어 있으면 작성이 완료되며 목록으로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1-1. 작성완료 버튼을 클릭하였을 때 제목, 내용중에 작성이 된것이 없으면 [모든항목을 작성해주세요]알람이 뜨며 미작성 항목으로 focus된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2. 취소 버튼을 누르면 목록페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 게시글의 제목을 클릭하면 상세보기로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-1. 열람할 수 없는 로그인 사용자가 상세보기를 클릭한 경우 조회할 수 없다는 경고창을 띄운다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 작성된 Contents 하단에는 댓글 창이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 댓글의 작성은 비동기로 이루어진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 댓글의 작성자와 관리자는 댓글을 수정, 삭제 할 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 댓글은 20개 단위로 보여진다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 댓글창의 하단에는 페이지 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 작성자는 총 소요시간을 입력해야 한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 각 여행지마다 사진을 업로드하고 짧은 글을 작성해야한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 작성창 하단에는 작성완료 버튼과, 취소 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1. 작성완료버튼을 클릭하면 모든 사항이 입력되었을시 글이 작성되며 목록페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1-1. 미입력된 항목이 있는경우 [모든항목을 입력해주세요] 알람창이 뜬 후, 미입력항목으로 커서가 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2. 취소 버튼을 누르면 목록으로 이동한다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -765,137 +809,137 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1203,7 +1247,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1212,108 +1256,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1329,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1343,425 +1387,435 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="33" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="33" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="33" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="33" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1">
+      <c r="A15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="36" t="s">
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A16" s="5" t="s">
+      <c r="C28" s="35"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="36"/>
+    </row>
+    <row r="29" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1">
+      <c r="A30" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A17" s="19" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A31" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="11" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A18" s="39" t="s">
+      <c r="E31" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A32" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="29" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B33" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="32" t="s">
+      <c r="C33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="31" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A32" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A33" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="30"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="31"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:5" ht="17.25" thickBot="1">
       <c r="A37" s="31"/>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="37"/>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" customHeight="1"/>
-    <row r="50" ht="16.5" customHeight="1"/>
-    <row r="58" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="36"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="51" ht="16.5" customHeight="1"/>
+    <row r="59" ht="16.5" customHeight="1"/>
+    <row r="67" ht="16.5" customHeight="1"/>
+    <row r="75" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B36"/>
+  <mergeCells count="48">
+    <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B4:B12"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1784,416 +1838,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>56</v>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="30"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A14" s="30"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="36" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="35"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="37"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>70</v>
+      <c r="E18" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="43" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="43" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D24" s="44"/>
       <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="43" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D25" s="44"/>
       <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="43" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="30"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="30"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A33" s="31"/>
-      <c r="B33" s="36" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="35"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="13" t="s">
-        <v>82</v>
+      <c r="E36" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="38"/>
+      <c r="E38" s="39"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="31"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="31"/>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="34"/>
+      <c r="C41" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="31"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="40"/>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="31"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="40"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A46" s="31"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A47" s="32"/>
+      <c r="B47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="37"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:E38"/>
+  <mergeCells count="57">
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="A21:A33"/>
     <mergeCell ref="B21:B32"/>
     <mergeCell ref="C21:E21"/>
@@ -2203,32 +2324,25 @@
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:B46"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/요구사항_합본2_team2_최종_lee.xlsx
+++ b/doc/요구사항_합본2_team2_최종_lee.xlsx
@@ -12,11 +12,12 @@
     <sheet name="나만의 코스" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>Q&amp;A6</t>
   </si>
@@ -81,9 +82,6 @@
     <t>요구사항 ID</t>
   </si>
   <si>
-    <t>R-0-001</t>
-  </si>
-  <si>
     <t>요구사항 명</t>
   </si>
   <si>
@@ -108,38 +106,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1.게시판은 게시글의 목록이 테이블 형식으로 보여진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 게시판의 글은 글 번호, 글 제목, 작성자, 작성일, 조회수가 표시된다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>요구사항내역</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3. 게시글 테이블 상단에는 조회할 게시글의 수를 선택하는 select 버튼이 있고 기본값은 20이다</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.게시글 테이블 하단에는 페이지 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 게시글 테이블 상단과 하단에는 검색어 입력창과 검색 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 게시글 테이블 상단과 하단에는 글 작성 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 글 작성 버튼을 클릭하면 글 작성 페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Q&amp;A 게시판은 로그인한 사용자만 작성할 수 있다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -156,34 +126,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>9. 게시글의 제목을 클릭하면 상세보기로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.  작성된 Contents 하단에는 삭제버튼과 수정 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 삭제 버튼 클릭시 [삭제여부를 묻는 알림창]이 나타난다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Q&amp;A 게시판 글 작성, 수정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3. 수정 버튼 클릭 시 해당 글의 제목과 내용이 입력되어 있는 글 작성 페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1. 댓글이 달려있는 글은 [삭제할수 없다는 알림창]이 나타난다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 게시글은 제목과 내용을 입력, 공개여부를 선택하여 작성한다.(SummerNote 사용)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>나만의 코스 게시판 보기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -192,26 +138,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1. 게시판의 Content 상단에는 추천순이 높은 5개의 게시글이 대표 사진으로 보여진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 게시판의 글은 글 번호, 글 제목, 작성자, 작성일, 조회수, 추천순이 표시된다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 게시글 테이블 상단에는 조회할 게시글의 수를 선택하는 select 버튼이 있고 기본값은 20이다</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 게시글 테이블 상단과 하단에는 검색어 입력창과 검색 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 게시글 테이블 상단과 하단에는 글 작성 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>나만의 코스 게시판 글 상세보기</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -220,151 +146,239 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3. 작성된 Contents는 타임라인 형식으로 보여진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 타임라인 상단에는 교통수단과, 소요시간, 추천수, 추천아이콘이 보여진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 추천아이콘을 클릭하면 게시글의 추천수가 비동기로 올라간다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-1. 추천한 게시글의 추천아이콘을 클릭하면 추천수가 비동기로 내려간다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 수정 버튼 클릭 시 해당 글의 제목과 내용이 입력되어 있는 글 작성 페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 작성된 Contents 하단에는 댓글 창이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 댓글의 작성은 비동기로 이루어진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 댓글의 작성자와 관리자는 댓글을 수정, 삭제 할 수 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 댓글은 20개 단위로 보여진다</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 댓글창의 하단에는 페이지 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>나만의 코스 게시판 글 작성, 수정</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>8. 글 작성 버튼을 클릭하면 글 작성 페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1. 비로그인 작성자가 글작성 버튼을 클릭하면 로그인 페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 상기의 Contents는 마우스가 오버되면 글의 제목과 추천수가 보인다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 게시글 테이블 하단에는 페이지 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-1. 비로그인 사용자가 상세보기를 클릭한 경우 로그인창으로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>타임라인 형식으로 작성되도록 한다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. select 창에서 코스에 포함된 여행지의 수를 선택한다. 여행지의 수는 최소 2개에서 최대 6개까지 이다. </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 작성자는 select 태그를 통해 자가용과 대중교통중 이동 수단을 선택한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 작성자는 총 여행경비를 입력해야한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 작성창 하단에는 작성완료 버튼과 취소버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1. 작성완료버튼을 클릭하였을때 제목과 내용이 작성되어 있으면 작성이 완료되며 목록으로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1-1. 작성완료 버튼을 클릭하였을 때 제목, 내용중에 작성이 된것이 없으면 [모든항목을 작성해주세요]알람이 뜨며 미작성 항목으로 focus된다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2. 취소 버튼을 누르면 목록페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 게시글의 제목을 클릭하면 상세보기로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-1. 열람할 수 없는 로그인 사용자가 상세보기를 클릭한 경우 조회할 수 없다는 경고창을 띄운다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 작성된 Contents 하단에는 댓글 창이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 댓글의 작성은 비동기로 이루어진다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 댓글의 작성자와 관리자는 댓글을 수정, 삭제 할 수 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 댓글은 20개 단위로 보여진다</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 댓글창의 하단에는 페이지 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 작성자는 총 소요시간을 입력해야 한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 각 여행지마다 사진을 업로드하고 짧은 글을 작성해야한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 작성창 하단에는 작성완료 버튼과, 취소 버튼이 있다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1. 작성완료버튼을 클릭하면 모든 사항이 입력되었을시 글이 작성되며 목록페이지로 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-1-1. 미입력된 항목이 있는경우 [모든항목을 입력해주세요] 알람창이 뜬 후, 미입력항목으로 커서가 이동한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-2. 취소 버튼을 누르면 목록으로 이동한다.</t>
+    <t>게시판은 게시글의 목록이 테이블 형식으로 보여진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판의 글은 글 번호, 글 제목, 작성자, 작성일, 조회수가 표시된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 테이블 상단에는 조회할 게시글의 수를 선택하는 select 버튼이 있고 기본값은 20이다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 테이블 하단에는 페이지 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 테이블 상단과 하단에는 검색어 입력창과 검색 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 테이블 상단과 하단에는 글 작성 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성 버튼을 클릭하면 글 작성 페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글의 제목을 클릭하면 상세보기로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 Contents 하단에는 삭제버튼과 수정 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 버튼 클릭시 [삭제여부를 묻는 알림창]이 나타난다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 댓글이 달려있는 글은 [삭제할수 없다는 알림창]이 나타난다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 버튼 클릭 시 해당 글의 제목과 내용이 입력되어 있는 글 작성 페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 Contents 하단에는 댓글 창이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글의 작성은 비동기로 이루어진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 열람할 수 없는 로그인 사용자가 상세보기를 클릭한 경우 조회할 수 없다는 경고창을 띄운다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글의 작성자와 관리자는 댓글을 수정, 삭제 할 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글은 20개 단위로 보여진다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글창의 하단에는 페이지 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글은 제목과 내용을 입력, 공개여부를 선택하여 작성한다.(SummerNote 사용)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성창 하단에는 작성완료 버튼과 취소버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 작성완료버튼을 클릭하였을때 제목과 내용이 작성되어 있으면 작성이 완료되며 목록으로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 작성완료 버튼을 클릭하였을 때 제목, 내용중에 작성이 된것이 없으면 [모든항목을 작성해주세요]알람이 뜨며 미작성 항목으로 focus된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 취소 버튼을 누르면 목록페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판의 Content 상단에는 추천순이 높은 5개의 게시글이 대표 사진으로 보여진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상기의 Contents는 마우스가 오버되면 글의 제목과 추천수가 보인다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판의 글은 글 번호, 글 제목, 작성자, 작성일, 조회수, 추천순이 표시된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 비로그인 작성자가 글작성 버튼을 클릭하면 로그인 페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 비로그인 사용자가 상세보기를 클릭한 경우 로그인창으로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 날씨정보를 클릭하면 툴팁으로 상세 날씨가 나타난다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목의 하단에는 위치검색, 카카오톡 보내기. 여행리스트 담기 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 위치 검색버튼을 누르면 해당 지역 반경 3KM이내의 관광지의 검색결과가 있는 검색페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 카카오톡 보내기 버튼을 클릭하면 해당 게시글의 링크가 카카오톡으로 보내진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 여행리스트 담기 버튼을 클릭하면 여행리스트 담기 Modal이 나타난다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성된 Contents는 타임라인 형식으로 보여진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임라인 상단에는 교통수단과, 소요시간이 보여진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 수정버튼은 관리자와 해당글 작성자에게만 보여진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 댓글의 작성은 비동기로 이루어진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 댓글의 작성자와 관리자는 댓글을 수정, 삭제 할 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 댓글은 20개 단위로 보여진다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 댓글창의 하단에는 페이지 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임라인 하단에는 코스에 포함된 관광지들이 마킹된 지도가 보인다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 마킹에는 코스의 순서대로 Numbering되어 있고, 순서대로 직선이 연결되어 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">작성창 상단에 [내 여행리스트에서 불러오기]버튼이 존재한다 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼을 클릭하면 내 여행리스트 목록의 제목이 dropdown으로 나타난다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 리스트의 제목을 클릭하면 여행지의 수 선택 select가 해당 리스트의 관광지수로 설정된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 타임라인의 텍스트 부분에 해당 리스트의 관광지의 이름이 자동으로 입력된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 창에서 코스에 포함된 여행지의 수를 선택한다. 여행지의 수는 최소 2개에서 최대 6개까지 이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이미 작성된 타임라인의 수보다 적은 수를 선택하면 가장 마지막 것부터 지워진다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자는 총 여행경비를 입력해야한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자는 총 소요시간을 입력해야 한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자는 select 태그를 통해 자가용과 대중교통중 이동 수단을 선택한다. 기본값은 대중교통으로 선택되어있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 여행지마다 사진을 업로드하고 짧은 글을 작성해야한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성창 하단에는 작성완료 버튼과, 취소 버튼이 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 작성완료버튼을 클릭하면 모든 사항이 입력되었을시 글이 작성되며 목록페이지로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미입력된 항목이 있는경우 [모든항목을 입력해주세요] 알람창이 뜬 후, 미입력항목으로 커서가 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 취소 버튼을 누르면 목록으로 이동한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 옆에는 코스의 시작 지역의 날씨정보가 표시된다</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -854,6 +868,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,6 +907,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,45 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1247,7 +1261,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1376,7 +1390,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E44"/>
+      <selection activeCell="C33" sqref="C33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1387,135 +1401,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1">
       <c r="A14" s="13"/>
@@ -1524,240 +1536,236 @@
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A17" s="26" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="C19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="32"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A28" s="33"/>
+      <c r="B28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A28" s="32"/>
-      <c r="B28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="30" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A32" s="21" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="33" t="s">
+      <c r="C33" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A37" s="32"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A38" s="33"/>
+      <c r="B38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="31"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="31"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="31"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A38" s="32"/>
-      <c r="B38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="51" ht="16.5" customHeight="1"/>
@@ -1768,6 +1776,38 @@
     <row r="91" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A1:B1"/>
@@ -1784,38 +1824,6 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1825,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:E46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1838,511 +1846,625 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A3" s="21" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="31"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="31"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="31"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="31"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="31"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" thickBot="1"/>
     <row r="17" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A19" s="26" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="33" t="s">
+      <c r="C21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="32"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="32"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="32"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="32"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="32"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="32"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="32"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="32"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A40" s="32"/>
+      <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="31"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="31"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="31"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="31"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="31"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="31"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="31"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="31"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="12" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="37"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1"/>
+    <row r="42" spans="1:5" ht="18" thickTop="1" thickBot="1">
+      <c r="A42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" thickBot="1"/>
-    <row r="35" spans="1:5" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A36" s="21" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A43" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="8" t="s">
+      <c r="B43" s="25"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E43" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A44" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A37" s="21" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="C45" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="32"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="32"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="32"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="32"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="32"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="32"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="32"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="32"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="32"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="32"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="32"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="32"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A59" s="33"/>
+      <c r="B59" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="31"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="31"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="31"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="31"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="31"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="31"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="31"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41"/>
-    </row>
-    <row r="46" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
-    </row>
-    <row r="47" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A47" s="32"/>
-      <c r="B47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="69">
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="A45:A59"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:A40"/>
+    <mergeCell ref="B21:B39"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
